--- a/biology/Zoologie/Gloydius_halys/Gloydius_halys.xlsx
+++ b/biology/Zoologie/Gloydius_halys/Gloydius_halys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius halys est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius halys est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en république populaire de Chine ;
 dans le nord de l'Iran ;
 dans le sud de la Russie ;
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 janvier 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 janvier 2013) :
 Gloydius halys affinis (Gray, 1849)
 Gloydius halys boehmei (Nilson, 1983)
 Gloydius halys caraganus (Eichwald, 1831)
@@ -620,7 +638,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bour, 1993 : Les voyages de Peter Simon Pallas et l’origine de Coluber halys (Serpentes Viperidae). Société linnéenne de Lyon, vol. 62, p. 328-340.
 Eichwald, 1831 : Zoologia specialis, quam expositis animalibus tum vivis, tum fossilibus potissimuni rossiae in universum, et poloniae in specie, in usum lectionum publicarum in Universitate Caesarea Vilnensi. Zawadski, Vilnae, vol. 3, p. 1-404 (texte intégral).
